--- a/games/ale-and-tale-tavern/ale-and-tale-tavern_data.xlsx
+++ b/games/ale-and-tale-tavern/ale-and-tale-tavern_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\ale-and-tale-tavern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E84A3A-94F2-4D2D-A46A-6F2A0A04EC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E089F32-2DB9-4EE7-80A8-BE7D2F3167CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="-24975" yWindow="1080" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1277,13 +1277,16 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
     </row>

--- a/games/ale-and-tale-tavern/ale-and-tale-tavern_data.xlsx
+++ b/games/ale-and-tale-tavern/ale-and-tale-tavern_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\ale-and-tale-tavern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E089F32-2DB9-4EE7-80A8-BE7D2F3167CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190DBDBD-DE9C-4821-B081-61AED7F332C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24975" yWindow="1080" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="-26670" yWindow="1020" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -993,13 +993,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
@@ -1018,13 +1021,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
@@ -1082,7 +1088,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B16" t="s">
@@ -1091,15 +1097,21 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
@@ -1172,7 +1184,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
@@ -1181,7 +1193,9 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1375,7 +1389,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B40" t="s">
@@ -1384,15 +1398,21 @@
       <c r="C40" s="2">
         <v>1</v>
       </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>1</v>
       </c>
     </row>
@@ -1425,7 +1445,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B44" t="s">
@@ -1434,7 +1454,9 @@
       <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1448,7 +1470,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B46" t="s">
@@ -1457,15 +1479,21 @@
       <c r="C46" s="2">
         <v>1</v>
       </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B47" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <v>1</v>
       </c>
     </row>

--- a/games/ale-and-tale-tavern/ale-and-tale-tavern_data.xlsx
+++ b/games/ale-and-tale-tavern/ale-and-tale-tavern_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\ale-and-tale-tavern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190DBDBD-DE9C-4821-B081-61AED7F332C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563236F2-5EFD-4A7B-B0C1-1F0282C62ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26670" yWindow="1020" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1077,13 +1077,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
     </row>
@@ -1116,13 +1119,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1204,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
@@ -1207,7 +1213,9 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1305,13 +1313,16 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
     </row>

--- a/games/ale-and-tale-tavern/ale-and-tale-tavern_data.xlsx
+++ b/games/ale-and-tale-tavern/ale-and-tale-tavern_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\ale-and-tale-tavern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563236F2-5EFD-4A7B-B0C1-1F0282C62ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC0B015-E898-4720-8021-69F31A3398E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="3195" yWindow="1215" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
@@ -1142,7 +1142,9 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1367,7 +1369,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
@@ -1376,15 +1378,21 @@
       <c r="C37" s="2">
         <v>1</v>
       </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B38" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
@@ -1582,7 +1590,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B54" t="s">
@@ -1591,7 +1599,9 @@
       <c r="C54" s="2">
         <v>1</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
